--- a/inst/extdata/translations2.xlsx
+++ b/inst/extdata/translations2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandalgarno/Code/shinyssdtools/shinyssdtools/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SzoecsE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B03A93F-4BE2-274A-BE5E-ADB63893C546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F1FE76-7AD5-48BB-8533-19BA294CDFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - translations" sheetId="1" r:id="rId1"/>
@@ -893,7 +893,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2248,17 +2248,17 @@
   <dimension ref="A1:IV75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="166.6640625" style="1" customWidth="1"/>
-    <col min="5" max="256" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="166.7109375" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>46</v>
       </c>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>56</v>
       </c>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>67</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>73</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>77</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>81</v>
       </c>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>84</v>
       </c>
@@ -2594,31 +2594,31 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>92</v>
       </c>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>95</v>
       </c>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>98</v>
       </c>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>105</v>
       </c>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>108</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>112</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>116</v>
       </c>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>119</v>
       </c>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>122</v>
       </c>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>125</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>129</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>132</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>136</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>140</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>144</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>147</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>151</v>
       </c>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>154</v>
       </c>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>157</v>
       </c>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>160</v>
       </c>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>163</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>167</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>171</v>
       </c>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>172</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>173</v>
       </c>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="6" t="s">
         <v>174</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>177</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>181</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>185</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="6" t="s">
         <v>188</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>191</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="6" t="s">
         <v>195</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>198</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="6" t="s">
         <v>202</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>206</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>210</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="6" t="s">
         <v>213</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>217</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>221</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="6" t="s">
         <v>225</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="6" t="s">
         <v>229</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="6" t="s">
         <v>233</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="6" t="s">
         <v>237</v>
       </c>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="6" t="s">
         <v>240</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>244</v>
       </c>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="6" t="s">
         <v>247</v>
       </c>
